--- a/zwnl-2009.xlsx
+++ b/zwnl-2009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E3E2E0-51A6-43A2-B8C2-5A52C9CBF007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A33483B-E718-402D-9B04-F3C7D58B3EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1013" yWindow="2393" windowWidth="21502" windowHeight="12975" xr2:uid="{BDA33543-83AF-4D7C-906F-E05D921AB472}"/>
+    <workbookView xWindow="3675" yWindow="2625" windowWidth="21503" windowHeight="12975" xr2:uid="{BDA33543-83AF-4D7C-906F-E05D921AB472}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Naam</t>
   </si>
@@ -118,6 +118,22 @@
   </si>
   <si>
     <t>Git</t>
+  </si>
+  <si>
+    <t>- 55006 Ddr5-Mdbz
+- 60702 Kfhaz</t>
+  </si>
+  <si>
+    <t>- Kfh
+- IJsm
+- Rtd</t>
+  </si>
+  <si>
+    <t>- Bd
+- Ddr</t>
+  </si>
+  <si>
+    <t>Nvt</t>
   </si>
 </sst>
 </file>
@@ -178,7 +194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -187,6 +202,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -503,21 +519,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A56F8E-D833-4C7F-9673-0AFFF960D58F}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.9296875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="17.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -525,13 +541,13 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -539,58 +555,67 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -598,31 +623,46 @@
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/zwnl-2009.xlsx
+++ b/zwnl-2009.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A33483B-E718-402D-9B04-F3C7D58B3EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536FD0CE-EFF9-491A-AD63-B09AACDFE39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="2625" windowWidth="21503" windowHeight="12975" xr2:uid="{BDA33543-83AF-4D7C-906F-E05D921AB472}"/>
+    <workbookView xWindow="13552" yWindow="3953" windowWidth="15248" windowHeight="11647" xr2:uid="{BDA33543-83AF-4D7C-906F-E05D921AB472}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Standard" sheetId="1" r:id="rId1"/>
+    <sheet name="Quickdrive consists" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Quickdrive consists'!$A$1:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +39,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{23FC332E-B85F-44A1-BEEC-E2135C83E66A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SLT als proef</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{B007309A-D080-4F67-9327-09E52A5F4A79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ipv 4000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{9D6615F5-548A-481C-9892-9CD713678119}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+vanaf september</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Naam</t>
   </si>
@@ -135,12 +221,174 @@
   <si>
     <t>Nvt</t>
   </si>
+  <si>
+    <t>Treinserie</t>
+  </si>
+  <si>
+    <t>Materieel</t>
+  </si>
+  <si>
+    <t>Min bak</t>
+  </si>
+  <si>
+    <t>Max bak</t>
+  </si>
+  <si>
+    <t>Consist class</t>
+  </si>
+  <si>
+    <t>Max lengte</t>
+  </si>
+  <si>
+    <t>ICM</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>1700 + ICRm</t>
+  </si>
+  <si>
+    <t>IRM</t>
+  </si>
+  <si>
+    <t>1800 + DDM-1</t>
+  </si>
+  <si>
+    <t>1700 + ICRm, VIRM</t>
+  </si>
+  <si>
+    <t>DD-AR 74xx/78xx</t>
+  </si>
+  <si>
+    <t>SGM</t>
+  </si>
+  <si>
+    <t>Plan V</t>
+  </si>
+  <si>
+    <t>ICRmh Bnl</t>
+  </si>
+  <si>
+    <t>Thalys</t>
+  </si>
+  <si>
+    <t>Arriva E-GTW 2/8</t>
+  </si>
+  <si>
+    <t>ICRmh Fyra</t>
+  </si>
+  <si>
+    <t>NMBS</t>
+  </si>
+  <si>
+    <t>P Intercity</t>
+  </si>
+  <si>
+    <t>P International</t>
+  </si>
+  <si>
+    <t>P Regional</t>
+  </si>
+  <si>
+    <t>P Commuter</t>
+  </si>
+  <si>
+    <t>P Fast</t>
+  </si>
+  <si>
+    <t>Custom 1</t>
+  </si>
+  <si>
+    <t>Custom 2</t>
+  </si>
+  <si>
+    <t>Custom 3, P Fast</t>
+  </si>
+  <si>
+    <t>Custom 4</t>
+  </si>
+  <si>
+    <t>Custom 5</t>
+  </si>
+  <si>
+    <t>Custom 6</t>
+  </si>
+  <si>
+    <t>P Scrap</t>
+  </si>
+  <si>
+    <t>F Coal</t>
+  </si>
+  <si>
+    <t>F Container</t>
+  </si>
+  <si>
+    <t>F Oil</t>
+  </si>
+  <si>
+    <t>F Gravel</t>
+  </si>
+  <si>
+    <t>F Paper</t>
+  </si>
+  <si>
+    <t>F Scrap</t>
+  </si>
+  <si>
+    <t>F Wood</t>
+  </si>
+  <si>
+    <t>F Livestock</t>
+  </si>
+  <si>
+    <t>F Nuclear flask</t>
+  </si>
+  <si>
+    <t>Kfh-Zlw</t>
+  </si>
+  <si>
+    <t>Kfh-Rsd-Sloe</t>
+  </si>
+  <si>
+    <t>Kfh-Bd</t>
+  </si>
+  <si>
+    <t>Zlw-Esn</t>
+  </si>
+  <si>
+    <t>Losse loks</t>
+  </si>
+  <si>
+    <t>Kfh-Rtd</t>
+  </si>
+  <si>
+    <t>Sloe-Bd</t>
+  </si>
+  <si>
+    <t>Kfh-Rsd-Esn</t>
+  </si>
+  <si>
+    <t>P Bijzonder</t>
+  </si>
+  <si>
+    <t>Preserved</t>
+  </si>
+  <si>
+    <t>BLINDZUG</t>
+  </si>
+  <si>
+    <t>Custom 8</t>
+  </si>
+  <si>
+    <t>1967 Rtd-Bd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +400,33 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -203,6 +478,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -517,33 +795,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A56F8E-D833-4C7F-9673-0AFFF960D58F}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.9296875" customWidth="1"/>
     <col min="2" max="2" width="17.9296875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,7 +833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -559,43 +841,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -611,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -619,13 +901,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -669,4 +951,505 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60615798-6973-4F9D-9000-D604638E560B}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>9300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1900</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3600</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>32500</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>4000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>4100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>4200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>9700</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>12100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>500</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1700</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2800</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>12500</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>12700</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>9200</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>5000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>5100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>13600</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2700</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="8">
+        <v>14000</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="8">
+        <v>14100</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>1000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="8">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="8">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F16" xr:uid="{60615798-6973-4F9D-9000-D604638E560B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
+      <sortCondition ref="E1:E16"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/zwnl-2009.xlsx
+++ b/zwnl-2009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536FD0CE-EFF9-491A-AD63-B09AACDFE39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD6E36-D097-4F03-97D2-C2C251E36A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13552" yWindow="3953" windowWidth="15248" windowHeight="11647" xr2:uid="{BDA33543-83AF-4D7C-906F-E05D921AB472}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>Naam</t>
   </si>
@@ -382,6 +382,51 @@
   </si>
   <si>
     <t>1967 Rtd-Bd</t>
+  </si>
+  <si>
+    <t>Rtd:
+- 2869
+- 4064
+- 5067
+- 14173/4064</t>
+  </si>
+  <si>
+    <t>Ddr:
+- 2162 Ddr5
+- 51xx Brd-Ddr-Rsd
+- 325xx</t>
+  </si>
+  <si>
+    <t>Rtd-Ddr:
+- 5060
+- 51xx Brd-Rtd
+- 2160
+- KBV10
+- 2260
+- 9343
+- 5062- 1962</t>
+  </si>
+  <si>
+    <t>Ddr-Bd:
+- ESW20
+- 51xx Wld-Ddr-Rtd
+- SK10
+- 2262
+- KNM20
+- 9245
+- 1964
+- EHES20</t>
+  </si>
+  <si>
+    <t>DRGL2011 Done</t>
+  </si>
+  <si>
+    <t>Bd:
+- 2267 Bd8 (ver ivm koppelen)
+- 36xx Rsd-Tb
+- ESHE10
+- 36xx Tb-Rsd
+- 13668</t>
   </si>
 </sst>
 </file>
@@ -797,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A56F8E-D833-4C7F-9673-0AFFF960D58F}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -832,38 +877,56 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="C6" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
@@ -884,6 +947,9 @@
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -900,12 +966,14 @@
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
@@ -915,7 +983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,15 +999,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>

--- a/zwnl-2009.xlsx
+++ b/zwnl-2009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD6E36-D097-4F03-97D2-C2C251E36A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10837D07-B9D6-4322-9C36-27EA4F8137B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13552" yWindow="3953" windowWidth="15248" windowHeight="11647" xr2:uid="{BDA33543-83AF-4D7C-906F-E05D921AB472}"/>
+    <workbookView xWindow="0" yWindow="3953" windowWidth="15248" windowHeight="11647" xr2:uid="{BDA33543-83AF-4D7C-906F-E05D921AB472}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>Naam</t>
   </si>
@@ -427,6 +427,21 @@
 - ESHE10
 - 36xx Tb-Rsd
 - 13668</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>- IJsm
+- Kfh
+- Ddr</t>
+  </si>
+  <si>
+    <t>- Rtd
+- Ddr</t>
+  </si>
+  <si>
+    <t>Audio?</t>
   </si>
 </sst>
 </file>
@@ -832,7 +847,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -840,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A56F8E-D833-4C7F-9673-0AFFF960D58F}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -869,6 +884,9 @@
         <v>20</v>
       </c>
       <c r="B2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -931,14 +949,17 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -958,6 +979,9 @@
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
@@ -982,6 +1006,9 @@
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
@@ -990,6 +1017,9 @@
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
@@ -998,6 +1028,9 @@
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
@@ -1016,6 +1049,14 @@
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/zwnl-2009.xlsx
+++ b/zwnl-2009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10837D07-B9D6-4322-9C36-27EA4F8137B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F7A3E9-5858-4A39-BF89-47B90F2097C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3953" windowWidth="15248" windowHeight="11647" xr2:uid="{BDA33543-83AF-4D7C-906F-E05D921AB472}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>Naam</t>
   </si>
@@ -441,7 +441,10 @@
 - Ddr</t>
   </si>
   <si>
-    <t>Audio?</t>
+    <t>Ambient audio?</t>
+  </si>
+  <si>
+    <t>Omroep?</t>
   </si>
 </sst>
 </file>
@@ -855,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A56F8E-D833-4C7F-9673-0AFFF960D58F}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1057,6 +1060,14 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/zwnl-2009.xlsx
+++ b/zwnl-2009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F7A3E9-5858-4A39-BF89-47B90F2097C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12F7457-1E4B-418B-8DC0-CCBC5DB8766C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3953" windowWidth="15248" windowHeight="11647" xr2:uid="{BDA33543-83AF-4D7C-906F-E05D921AB472}"/>
   </bookViews>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A56F8E-D833-4C7F-9673-0AFFF960D58F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -878,7 +878,7 @@
       <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>78</v>
       </c>
     </row>
